--- a/data/huang_Flupyradifurone_2023.xlsx
+++ b/data/huang_Flupyradifurone_2023.xlsx
@@ -54,13 +54,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -113,8 +119,8 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -442,7 +448,7 @@
     <col min="7" max="7" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +467,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -480,7 +486,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5">
         <v>0.3</v>
       </c>
@@ -499,7 +505,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -516,7 +522,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -531,11 +537,11 @@
         <v>10</v>
       </c>
       <c r="F5" s="4">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>10</v>
       </c>
@@ -550,7 +556,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>30</v>
       </c>
@@ -565,7 +571,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>100</v>
       </c>
